--- a/Axcels/excel-funces.xlsx
+++ b/Axcels/excel-funces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13575" windowHeight="12645" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="13440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
   <si>
     <t>Item</t>
   </si>
@@ -587,82 +587,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="27"/>
-      <color rgb="FF0C0C0C"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color rgb="FF0C0C0C"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color rgb="FF1E73BE"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF0C0C0C"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,8 +615,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,8 +638,71 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,47 +724,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,8 +737,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,7 +754,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,13 +790,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +886,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,150 +928,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -980,62 +948,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1054,6 +978,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1063,17 +1002,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,41 +1045,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1144,10 +1053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,16 +1065,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,119 +1083,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,33 +1207,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1680,18 +1562,18 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="7" width="2.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="12" width="2.375" customWidth="1"/>
-    <col min="13" max="13" width="5.375" customWidth="1"/>
-    <col min="14" max="14" width="3.375" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.37837837837838" customWidth="1"/>
+    <col min="3" max="3" width="2.37837837837838" customWidth="1"/>
+    <col min="4" max="4" width="5.37837837837838" customWidth="1"/>
+    <col min="5" max="7" width="2.37837837837838" customWidth="1"/>
+    <col min="8" max="8" width="10.3783783783784" customWidth="1"/>
+    <col min="9" max="12" width="2.37837837837838" customWidth="1"/>
+    <col min="13" max="13" width="5.37837837837838" customWidth="1"/>
+    <col min="14" max="14" width="3.37837837837838" customWidth="1"/>
+    <col min="15" max="15" width="12.6216216216216" customWidth="1"/>
+    <col min="16" max="16" width="3.37837837837838" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1824,7 +1706,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -1842,823 +1724,981 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.3783783783784" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5675675675676" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="14.15" spans="1:3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:2">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" ht="42.45" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="42.45" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:2">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="42.45" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="42.45" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" ht="42.45" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" ht="54" spans="1:2">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="56.55" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:2">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" ht="70.7" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" ht="14.15" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:2">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" ht="42.45" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="27" spans="1:2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="28.3" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="42.45" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:2">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="42.45" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" ht="40.5" spans="1:2">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" ht="42.45" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:2">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" ht="42.45" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" ht="34.5" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" ht="14.15" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" ht="14.15" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" ht="35.25" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" ht="28.3" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" ht="35.25" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" ht="28.3" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" ht="52.5" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" ht="42.45" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" ht="69.75" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" ht="56.55" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" ht="52.5" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" ht="42.45" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" ht="35.25" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" ht="28.3" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" ht="35.25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" ht="28.3" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" ht="34.5" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" ht="28.3" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" ht="68.25" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" ht="14.15" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" ht="18" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" ht="14.15" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" ht="35.25" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" ht="28.3" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" ht="69.75" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" ht="42.45" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" ht="69.75" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" ht="56.55" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" ht="69.75" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" ht="56.55" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" ht="52.5" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" ht="42.45" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" ht="52.5" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" ht="42.45" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" ht="52.5" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" ht="42.45" spans="1:3">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" ht="52.5" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" ht="42.45" spans="1:3">
+      <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" ht="52.5" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" ht="42.45" spans="1:3">
+      <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" ht="69.75" spans="1:2">
-      <c r="A39" s="7" t="s">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" ht="56.55" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" ht="69.75" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" ht="56.55" spans="1:3">
+      <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" ht="51.75" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" ht="42.45" spans="1:3">
+      <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" ht="34.5" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" ht="14.15" spans="1:3">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" ht="18" spans="1:2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" ht="14.15" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" ht="35.25" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" ht="28.3" spans="1:3">
+      <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" ht="52.5" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" ht="42.45" spans="1:3">
+      <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" ht="52.5" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" ht="28.3" spans="1:3">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" ht="69.75" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" ht="56.55" spans="1:3">
+      <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" ht="35.25" spans="1:2">
-      <c r="A49" s="7" t="s">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" ht="28.3" spans="1:3">
+      <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" ht="18" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" ht="14.15" spans="1:3">
+      <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" ht="35.25" spans="1:2">
-      <c r="A51" s="7" t="s">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" ht="28.3" spans="1:3">
+      <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" ht="35.25" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" ht="28.3" spans="1:3">
+      <c r="A52" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" ht="34.5" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" ht="28.3" spans="1:3">
+      <c r="A53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" ht="34.5" spans="1:1">
-      <c r="A55" s="4" t="s">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" ht="14.15" spans="1:3">
+      <c r="A55" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" ht="18" spans="1:2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" ht="14.15" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" ht="52.5" spans="1:2">
-      <c r="A57" s="7" t="s">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" ht="42.45" spans="1:3">
+      <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" ht="35.25" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" ht="28.3" spans="1:3">
+      <c r="A58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="59" ht="52.5" spans="1:2">
-      <c r="A59" s="7" t="s">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" ht="42.45" spans="1:3">
+      <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="60" ht="52.5" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" ht="42.45" spans="1:3">
+      <c r="A60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" ht="35.25" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" ht="28.3" spans="1:3">
+      <c r="A61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="62" ht="35.25" spans="1:2">
-      <c r="A62" s="7" t="s">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" ht="28.3" spans="1:3">
+      <c r="A62" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" ht="35.25" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" ht="28.3" spans="1:3">
+      <c r="A63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="64" ht="35.25" spans="1:2">
-      <c r="A64" s="7" t="s">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" ht="28.3" spans="1:3">
+      <c r="A64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" ht="35.25" spans="1:2">
-      <c r="A65" s="7" t="s">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" ht="28.3" spans="1:3">
+      <c r="A65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" ht="52.5" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" ht="42.45" spans="1:3">
+      <c r="A66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="67" ht="35.25" spans="1:2">
-      <c r="A67" s="7" t="s">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" ht="28.3" spans="1:3">
+      <c r="A67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" ht="35.25" spans="1:2">
-      <c r="A68" s="7" t="s">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" ht="28.3" spans="1:3">
+      <c r="A68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" ht="51.75" spans="1:2">
-      <c r="A69" s="10" t="s">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" ht="42.45" spans="1:3">
+      <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" ht="34.5" spans="1:1">
-      <c r="A71" s="4" t="s">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" ht="14.15" spans="1:3">
+      <c r="A71" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" ht="18" spans="1:2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" ht="14.15" spans="1:3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" ht="52.5" spans="1:2">
-      <c r="A73" s="7" t="s">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" ht="42.45" spans="1:3">
+      <c r="A73" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" ht="69.75" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" ht="56.55" spans="1:3">
+      <c r="A74" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="75" ht="35.25" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" ht="42.45" spans="1:3">
+      <c r="A75" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" ht="52.5" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" ht="42.45" spans="1:3">
+      <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" ht="52.5" spans="1:2">
-      <c r="A77" s="7" t="s">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" ht="42.45" spans="1:3">
+      <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="78" ht="35.25" spans="1:2">
-      <c r="A78" s="7" t="s">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" ht="28.3" spans="1:3">
+      <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" ht="52.5" spans="1:2">
-      <c r="A79" s="7" t="s">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" ht="42.45" spans="1:3">
+      <c r="A79" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" ht="52.5" spans="1:2">
-      <c r="A80" s="7" t="s">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" ht="42.45" spans="1:3">
+      <c r="A80" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="81" ht="35.25" spans="1:2">
-      <c r="A81" s="7" t="s">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" ht="28.3" spans="1:3">
+      <c r="A81" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" ht="52.5" spans="1:2">
-      <c r="A82" s="7" t="s">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" ht="42.45" spans="1:3">
+      <c r="A82" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" ht="69.75" spans="1:2">
-      <c r="A83" s="7" t="s">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" ht="56.55" spans="1:3">
+      <c r="A83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="84" ht="52.5" spans="1:2">
-      <c r="A84" s="7" t="s">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" ht="42.45" spans="1:3">
+      <c r="A84" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="85" ht="35.25" spans="1:2">
-      <c r="A85" s="7" t="s">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" ht="28.3" spans="1:3">
+      <c r="A85" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="86" ht="35.25" spans="1:2">
-      <c r="A86" s="7" t="s">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" ht="28.3" spans="1:3">
+      <c r="A86" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="87" ht="51.75" spans="1:2">
-      <c r="A87" s="10" t="s">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" ht="42.45" spans="1:3">
+      <c r="A87" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" ht="34.5" spans="1:1">
-      <c r="A89" s="4" t="s">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" ht="14.15" spans="1:3">
+      <c r="A89" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="90" ht="18" spans="1:2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6" t="s">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" ht="14.15" spans="1:3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" ht="86.25" customHeight="1" spans="1:2">
-      <c r="A91" s="10" t="s">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" ht="86.25" customHeight="1" spans="1:3">
+      <c r="A91" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93" ht="17.25" spans="1:2">
-      <c r="A93" s="10" t="s">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" ht="14.15" spans="1:3">
+      <c r="A93" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95" ht="17.25" spans="1:2">
-      <c r="A95" s="10" t="s">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" ht="14.15" spans="1:3">
+      <c r="A95" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" ht="17.25" spans="1:2">
-      <c r="A97" s="10" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" ht="14.15" spans="1:3">
+      <c r="A97" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" ht="17.25" spans="1:2">
-      <c r="A99" s="10" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" ht="14.15" spans="1:3">
+      <c r="A99" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="101" ht="17.25" spans="1:2">
-      <c r="A101" s="10" t="s">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" ht="14.15" spans="1:3">
+      <c r="A101" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B101" s="11"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="12"/>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" ht="17.25" spans="1:2">
-      <c r="A103" s="10" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" ht="14.15" spans="1:3">
+      <c r="A103" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" ht="17.25" spans="1:2">
-      <c r="A105" s="10" t="s">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" ht="14.15" spans="1:3">
+      <c r="A105" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" ht="34.5" spans="1:1">
-      <c r="A107" s="4" t="s">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" ht="14.15" spans="1:3">
+      <c r="A107" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="108" ht="18" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="6" t="s">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" ht="14.15" spans="1:3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" ht="51.75" spans="1:2">
-      <c r="A109" s="10" t="s">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" ht="42.45" spans="1:3">
+      <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" ht="14.25"/>
-    <row r="112" ht="18" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="6" t="s">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" ht="14.15" spans="1:3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" ht="52.5" spans="1:2">
-      <c r="A113" s="7" t="s">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" ht="42.45" spans="1:3">
+      <c r="A113" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="114" ht="52.5" spans="1:2">
-      <c r="A114" s="7" t="s">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" ht="42.45" spans="1:3">
+      <c r="A114" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="115" ht="52.5" spans="1:2">
-      <c r="A115" s="7" t="s">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" ht="42.45" spans="1:3">
+      <c r="A115" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="116" ht="35.25" spans="1:2">
-      <c r="A116" s="7" t="s">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" ht="28.3" spans="1:3">
+      <c r="A116" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="117" ht="35.25" spans="1:2">
-      <c r="A117" s="7" t="s">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" ht="28.3" spans="1:3">
+      <c r="A117" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="118" ht="35.25" spans="1:2">
-      <c r="A118" s="7" t="s">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" ht="28.3" spans="1:3">
+      <c r="A118" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="119" ht="34.5" spans="1:2">
-      <c r="A119" s="10" t="s">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" ht="28.3" spans="1:3">
+      <c r="A119" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="C119" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B91:B105"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="DATE" tooltip="https://trumpexcel.com/excel-date-function/"/>
     <hyperlink ref="A3" r:id="rId2" display="DATEVALUE" tooltip="https://trumpexcel.com/excel-datevalue-function/"/>

--- a/Axcels/excel-funces.xlsx
+++ b/Axcels/excel-funces.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="13440" activeTab="2"/>
+    <workbookView windowWidth="27750" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>Item</t>
   </si>
@@ -588,9 +587,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -615,9 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,8 +636,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -653,9 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,8 +683,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -684,38 +729,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -724,24 +737,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,187 +753,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,16 +948,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +973,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,7 +1007,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,33 +1016,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,6 +1029,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1053,7 +1052,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1068,130 +1067,130 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,18 +1561,18 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="5.37837837837838" customWidth="1"/>
-    <col min="3" max="3" width="2.37837837837838" customWidth="1"/>
-    <col min="4" max="4" width="5.37837837837838" customWidth="1"/>
-    <col min="5" max="7" width="2.37837837837838" customWidth="1"/>
-    <col min="8" max="8" width="10.3783783783784" customWidth="1"/>
-    <col min="9" max="12" width="2.37837837837838" customWidth="1"/>
-    <col min="13" max="13" width="5.37837837837838" customWidth="1"/>
-    <col min="14" max="14" width="3.37837837837838" customWidth="1"/>
-    <col min="15" max="15" width="12.6216216216216" customWidth="1"/>
-    <col min="16" max="16" width="3.37837837837838" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="2.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="7" width="2.375" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="12" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="3.375" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1700,51 +1699,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <f>HOUR(3)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33.3783783783784" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5675675675676" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5666666666667" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.15" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="42.45" spans="1:3">
+    <row r="2" ht="40.5" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1728,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="42.45" spans="1:3">
+    <row r="3" ht="40.5" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1762,7 +1737,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="42.45" spans="1:3">
+    <row r="4" ht="40.5" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1771,7 +1746,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="42.45" spans="1:3">
+    <row r="5" ht="40.5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1755,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" ht="42.45" spans="1:3">
+    <row r="6" ht="40.5" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +1764,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" ht="56.55" spans="1:3">
+    <row r="7" ht="54" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1798,7 +1773,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" ht="70.7" spans="1:3">
+    <row r="8" ht="81" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1782,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" ht="14.15" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +1791,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" ht="42.45" spans="1:3">
+    <row r="10" ht="40.5" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1800,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" ht="28.3" spans="1:3">
+    <row r="11" ht="27" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1809,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" ht="42.45" spans="1:3">
+    <row r="12" ht="40.5" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -1843,7 +1818,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" ht="42.45" spans="1:3">
+    <row r="13" ht="40.5" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1852,7 +1827,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" ht="42.45" spans="1:3">
+    <row r="14" ht="40.5" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1861,7 +1836,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" ht="42.45" spans="1:3">
+    <row r="15" ht="40.5" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1875,21 +1850,21 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" ht="14.15" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" ht="14.15" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" ht="28.3" spans="1:3">
+    <row r="19" ht="27" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1873,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" ht="28.3" spans="1:3">
+    <row r="20" ht="27" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1907,7 +1882,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" ht="42.45" spans="1:3">
+    <row r="21" ht="40.5" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1916,7 +1891,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" ht="56.55" spans="1:3">
+    <row r="22" ht="54" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1925,7 +1900,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" ht="42.45" spans="1:3">
+    <row r="23" ht="40.5" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +1909,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" ht="28.3" spans="1:3">
+    <row r="24" ht="27" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1943,7 +1918,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" ht="28.3" spans="1:3">
+    <row r="25" ht="27" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1952,7 +1927,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" ht="28.3" spans="1:3">
+    <row r="26" ht="27" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1966,21 +1941,21 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" ht="14.15" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" ht="14.15" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" ht="28.3" spans="1:3">
+    <row r="30" ht="27" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -1989,7 +1964,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" ht="42.45" spans="1:3">
+    <row r="31" ht="40.5" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1998,7 +1973,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" ht="56.55" spans="1:3">
+    <row r="32" ht="54" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
@@ -2007,7 +1982,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" ht="56.55" spans="1:3">
+    <row r="33" ht="54" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -2016,7 +1991,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" ht="42.45" spans="1:3">
+    <row r="34" ht="40.5" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -2025,7 +2000,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" ht="42.45" spans="1:3">
+    <row r="35" ht="40.5" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -2034,7 +2009,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" ht="42.45" spans="1:3">
+    <row r="36" ht="40.5" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -2043,7 +2018,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" ht="42.45" spans="1:3">
+    <row r="37" ht="40.5" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -2052,7 +2027,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" ht="42.45" spans="1:3">
+    <row r="38" ht="40.5" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -2061,7 +2036,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" ht="56.55" spans="1:3">
+    <row r="39" ht="54" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -2070,7 +2045,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" ht="56.55" spans="1:3">
+    <row r="40" ht="54" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
@@ -2079,7 +2054,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" ht="42.45" spans="1:3">
+    <row r="41" ht="40.5" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -2093,21 +2068,21 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" ht="14.15" spans="1:3">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" ht="14.15" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" ht="28.3" spans="1:3">
+    <row r="45" ht="27" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
@@ -2116,7 +2091,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" ht="42.45" spans="1:3">
+    <row r="46" ht="40.5" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
@@ -2125,7 +2100,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" ht="28.3" spans="1:3">
+    <row r="47" ht="27" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
@@ -2134,7 +2109,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" ht="56.55" spans="1:3">
+    <row r="48" ht="54" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
@@ -2143,7 +2118,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" ht="28.3" spans="1:3">
+    <row r="49" ht="27" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
@@ -2152,7 +2127,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" ht="14.15" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -2161,7 +2136,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" ht="28.3" spans="1:3">
+    <row r="51" ht="27" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
@@ -2170,7 +2145,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" ht="28.3" spans="1:3">
+    <row r="52" ht="27" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>99</v>
       </c>
@@ -2179,7 +2154,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" ht="28.3" spans="1:3">
+    <row r="53" ht="27" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>101</v>
       </c>
@@ -2193,21 +2168,21 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" ht="14.15" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" ht="14.15" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" ht="42.45" spans="1:3">
+    <row r="57" ht="40.5" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
@@ -2216,7 +2191,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" ht="28.3" spans="1:3">
+    <row r="58" ht="27" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>106</v>
       </c>
@@ -2225,7 +2200,7 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" ht="42.45" spans="1:3">
+    <row r="59" ht="40.5" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
@@ -2234,7 +2209,7 @@
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" ht="42.45" spans="1:3">
+    <row r="60" ht="40.5" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>110</v>
       </c>
@@ -2243,7 +2218,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" ht="28.3" spans="1:3">
+    <row r="61" ht="27" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>112</v>
       </c>
@@ -2252,7 +2227,7 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" ht="28.3" spans="1:3">
+    <row r="62" ht="27" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>114</v>
       </c>
@@ -2261,7 +2236,7 @@
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" ht="28.3" spans="1:3">
+    <row r="63" ht="27" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>116</v>
       </c>
@@ -2270,7 +2245,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" ht="28.3" spans="1:3">
+    <row r="64" ht="27" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>118</v>
       </c>
@@ -2279,7 +2254,7 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" ht="28.3" spans="1:3">
+    <row r="65" ht="27" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>120</v>
       </c>
@@ -2288,7 +2263,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" ht="42.45" spans="1:3">
+    <row r="66" ht="40.5" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>122</v>
       </c>
@@ -2297,7 +2272,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" ht="28.3" spans="1:3">
+    <row r="67" ht="27" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>124</v>
       </c>
@@ -2306,7 +2281,7 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" ht="28.3" spans="1:3">
+    <row r="68" ht="27" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>126</v>
       </c>
@@ -2315,7 +2290,7 @@
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" ht="42.45" spans="1:3">
+    <row r="69" ht="40.5" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
@@ -2329,21 +2304,21 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" ht="14.15" spans="1:3">
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" ht="14.15" spans="1:3">
+    <row r="72" spans="1:3">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" ht="42.45" spans="1:3">
+    <row r="73" ht="40.5" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>131</v>
       </c>
@@ -2352,7 +2327,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" ht="56.55" spans="1:3">
+    <row r="74" ht="54" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>133</v>
       </c>
@@ -2361,7 +2336,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" ht="42.45" spans="1:3">
+    <row r="75" ht="40.5" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>135</v>
       </c>
@@ -2370,7 +2345,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" ht="42.45" spans="1:3">
+    <row r="76" ht="40.5" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
@@ -2379,7 +2354,7 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" ht="42.45" spans="1:3">
+    <row r="77" ht="40.5" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
@@ -2388,7 +2363,7 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" ht="28.3" spans="1:3">
+    <row r="78" ht="27" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
@@ -2397,7 +2372,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" ht="42.45" spans="1:3">
+    <row r="79" ht="40.5" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>143</v>
       </c>
@@ -2406,7 +2381,7 @@
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" ht="42.45" spans="1:3">
+    <row r="80" ht="40.5" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>145</v>
       </c>
@@ -2415,7 +2390,7 @@
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" ht="28.3" spans="1:3">
+    <row r="81" ht="27" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>147</v>
       </c>
@@ -2424,7 +2399,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" ht="42.45" spans="1:3">
+    <row r="82" ht="40.5" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>149</v>
       </c>
@@ -2433,7 +2408,7 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" ht="56.55" spans="1:3">
+    <row r="83" ht="54" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>151</v>
       </c>
@@ -2442,7 +2417,7 @@
       </c>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" ht="42.45" spans="1:3">
+    <row r="84" ht="40.5" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>153</v>
       </c>
@@ -2451,7 +2426,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" ht="28.3" spans="1:3">
+    <row r="85" ht="27" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>155</v>
       </c>
@@ -2460,7 +2435,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" ht="28.3" spans="1:3">
+    <row r="86" ht="27" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>157</v>
       </c>
@@ -2469,7 +2444,7 @@
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" ht="42.45" spans="1:3">
+    <row r="87" ht="40.5" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>159</v>
       </c>
@@ -2483,14 +2458,14 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" ht="14.15" spans="1:3">
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" ht="14.15" spans="1:3">
+    <row r="90" spans="1:3">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>13</v>
@@ -2511,7 +2486,7 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" ht="14.15" spans="1:3">
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>164</v>
       </c>
@@ -2523,7 +2498,7 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" ht="14.15" spans="1:3">
+    <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>165</v>
       </c>
@@ -2535,7 +2510,7 @@
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" ht="14.15" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>166</v>
       </c>
@@ -2547,7 +2522,7 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" ht="14.15" spans="1:3">
+    <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>167</v>
       </c>
@@ -2559,7 +2534,7 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" ht="14.15" spans="1:3">
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>168</v>
       </c>
@@ -2571,7 +2546,7 @@
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" ht="14.15" spans="1:3">
+    <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>169</v>
       </c>
@@ -2583,7 +2558,7 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" ht="14.15" spans="1:3">
+    <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
         <v>170</v>
       </c>
@@ -2595,21 +2570,21 @@
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" ht="14.15" spans="1:3">
+    <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" ht="14.15" spans="1:3">
+    <row r="108" spans="1:3">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" ht="42.45" spans="1:3">
+    <row r="109" ht="40.5" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
@@ -2628,14 +2603,14 @@
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" ht="14.15" spans="1:3">
+    <row r="112" spans="1:3">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" ht="42.45" spans="1:3">
+    <row r="113" ht="40.5" spans="1:3">
       <c r="A113" s="3" t="s">
         <v>174</v>
       </c>
@@ -2644,7 +2619,7 @@
       </c>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" ht="42.45" spans="1:3">
+    <row r="114" ht="40.5" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>176</v>
       </c>
@@ -2653,7 +2628,7 @@
       </c>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" ht="42.45" spans="1:3">
+    <row r="115" ht="40.5" spans="1:3">
       <c r="A115" s="3" t="s">
         <v>178</v>
       </c>
@@ -2662,7 +2637,7 @@
       </c>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" ht="28.3" spans="1:3">
+    <row r="116" ht="27" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>180</v>
       </c>
@@ -2671,7 +2646,7 @@
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" ht="28.3" spans="1:3">
+    <row r="117" ht="27" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>182</v>
       </c>
@@ -2680,7 +2655,7 @@
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" ht="28.3" spans="1:3">
+    <row r="118" ht="27" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>184</v>
       </c>
@@ -2689,7 +2664,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" ht="28.3" spans="1:3">
+    <row r="119" ht="27" spans="1:3">
       <c r="A119" s="3" t="s">
         <v>186</v>
       </c>
